--- a/output.xlsx
+++ b/output.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margarita/PycharmProjects/GitHub/Data-Management-HW/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9114AF-F021-4F4B-91A0-F48C2FFF99D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$336</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -5365,11 +5374,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5429,17 +5438,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5477,9 +5494,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5511,9 +5528,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5545,9 +5580,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5720,14 +5773,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" customWidth="1"/>
+    <col min="37" max="37" width="13.1640625" customWidth="1"/>
+    <col min="38" max="38" width="13.83203125" customWidth="1"/>
+    <col min="39" max="39" width="11.83203125" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" customWidth="1"/>
+    <col min="41" max="41" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5849,7 +5927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>670</v>
       </c>
@@ -5974,7 +6052,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>671</v>
       </c>
@@ -6093,7 +6171,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>672</v>
       </c>
@@ -6206,7 +6284,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>673</v>
       </c>
@@ -6307,7 +6385,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>674</v>
       </c>
@@ -6429,7 +6507,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>675</v>
       </c>
@@ -6554,7 +6632,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>676</v>
       </c>
@@ -6679,7 +6757,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>677</v>
       </c>
@@ -6804,7 +6882,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>678</v>
       </c>
@@ -6926,7 +7004,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>679</v>
       </c>
@@ -7045,7 +7123,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>680</v>
       </c>
@@ -7167,7 +7245,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>681</v>
       </c>
@@ -7277,7 +7355,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>682</v>
       </c>
@@ -7399,7 +7477,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>683</v>
       </c>
@@ -7524,7 +7602,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>684</v>
       </c>
@@ -7649,7 +7727,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>685</v>
       </c>
@@ -7774,7 +7852,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>686</v>
       </c>
@@ -7896,7 +7974,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>687</v>
       </c>
@@ -8009,7 +8087,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>688</v>
       </c>
@@ -8134,7 +8212,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>689</v>
       </c>
@@ -8256,7 +8334,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>690</v>
       </c>
@@ -8363,7 +8441,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>691</v>
       </c>
@@ -8479,7 +8557,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>692</v>
       </c>
@@ -8604,7 +8682,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>693</v>
       </c>
@@ -8729,7 +8807,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>694</v>
       </c>
@@ -8824,7 +8902,7 @@
         <v>1508</v>
       </c>
       <c r="AG26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH26" t="s">
         <v>1526</v>
@@ -8851,7 +8929,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>695</v>
       </c>
@@ -8976,7 +9054,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>696</v>
       </c>
@@ -9098,7 +9176,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>697</v>
       </c>
@@ -9193,7 +9271,7 @@
         <v>1508</v>
       </c>
       <c r="AG29">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH29" t="s">
         <v>1526</v>
@@ -9220,7 +9298,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>698</v>
       </c>
@@ -9342,7 +9420,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>699</v>
       </c>
@@ -9458,7 +9536,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>700</v>
       </c>
@@ -9583,7 +9661,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>701</v>
       </c>
@@ -9699,7 +9777,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>702</v>
       </c>
@@ -9818,7 +9896,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>703</v>
       </c>
@@ -9937,7 +10015,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>704</v>
       </c>
@@ -10044,7 +10122,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>705</v>
       </c>
@@ -10169,7 +10247,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>706</v>
       </c>
@@ -10291,7 +10369,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>707</v>
       </c>
@@ -10404,7 +10482,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>708</v>
       </c>
@@ -10529,7 +10607,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>709</v>
       </c>
@@ -10654,7 +10732,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>710</v>
       </c>
@@ -10779,7 +10857,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>711</v>
       </c>
@@ -10901,7 +10979,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>712</v>
       </c>
@@ -10999,7 +11077,7 @@
         <v>1509</v>
       </c>
       <c r="AG44">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH44" t="s">
         <v>1526</v>
@@ -11026,7 +11104,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>713</v>
       </c>
@@ -11139,7 +11217,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>714</v>
       </c>
@@ -11264,7 +11342,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>715</v>
       </c>
@@ -11389,7 +11467,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>716</v>
       </c>
@@ -11514,7 +11592,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>717</v>
       </c>
@@ -11639,7 +11717,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>718</v>
       </c>
@@ -11752,7 +11830,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>719</v>
       </c>
@@ -11877,7 +11955,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>720</v>
       </c>
@@ -11999,7 +12077,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>721</v>
       </c>
@@ -12121,7 +12199,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>722</v>
       </c>
@@ -12246,7 +12324,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>723</v>
       </c>
@@ -12365,7 +12443,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>724</v>
       </c>
@@ -12490,7 +12568,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>725</v>
       </c>
@@ -12597,7 +12675,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>726</v>
       </c>
@@ -12722,7 +12800,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>727</v>
       </c>
@@ -12844,7 +12922,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>728</v>
       </c>
@@ -12969,7 +13047,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>729</v>
       </c>
@@ -13094,7 +13172,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>730</v>
       </c>
@@ -13216,7 +13294,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>731</v>
       </c>
@@ -13341,7 +13419,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>732</v>
       </c>
@@ -13463,7 +13541,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>733</v>
       </c>
@@ -13582,7 +13660,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>734</v>
       </c>
@@ -13704,7 +13782,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>735</v>
       </c>
@@ -13814,7 +13892,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>736</v>
       </c>
@@ -13939,7 +14017,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>737</v>
       </c>
@@ -14064,7 +14142,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>738</v>
       </c>
@@ -14189,7 +14267,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>739</v>
       </c>
@@ -14314,7 +14392,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>740</v>
       </c>
@@ -14439,7 +14517,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>741</v>
       </c>
@@ -14564,7 +14642,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>742</v>
       </c>
@@ -14686,7 +14764,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>743</v>
       </c>
@@ -14808,7 +14886,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>744</v>
       </c>
@@ -14921,7 +14999,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>745</v>
       </c>
@@ -15043,7 +15121,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>746</v>
       </c>
@@ -15168,7 +15246,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>747</v>
       </c>
@@ -15293,7 +15371,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>748</v>
       </c>
@@ -15415,7 +15493,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>749</v>
       </c>
@@ -15525,7 +15603,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>750</v>
       </c>
@@ -15647,7 +15725,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>751</v>
       </c>
@@ -15772,7 +15850,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>752</v>
       </c>
@@ -15891,7 +15969,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>753</v>
       </c>
@@ -16010,7 +16088,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>754</v>
       </c>
@@ -16126,7 +16204,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>755</v>
       </c>
@@ -16224,7 +16302,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>756</v>
       </c>
@@ -16349,7 +16427,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>757</v>
       </c>
@@ -16474,7 +16552,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>758</v>
       </c>
@@ -16590,7 +16668,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>759</v>
       </c>
@@ -16715,7 +16793,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>760</v>
       </c>
@@ -16831,7 +16909,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>761</v>
       </c>
@@ -16956,7 +17034,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>762</v>
       </c>
@@ -17072,7 +17150,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>763</v>
       </c>
@@ -17197,7 +17275,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>764</v>
       </c>
@@ -17316,7 +17394,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>765</v>
       </c>
@@ -17429,7 +17507,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>766</v>
       </c>
@@ -17554,7 +17632,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>767</v>
       </c>
@@ -17679,7 +17757,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>768</v>
       </c>
@@ -17798,7 +17876,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>769</v>
       </c>
@@ -17920,7 +17998,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>770</v>
       </c>
@@ -18045,7 +18123,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>771</v>
       </c>
@@ -18164,7 +18242,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>772</v>
       </c>
@@ -18286,7 +18364,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>773</v>
       </c>
@@ -18405,7 +18483,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>774</v>
       </c>
@@ -18527,7 +18605,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>775</v>
       </c>
@@ -18652,7 +18730,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>776</v>
       </c>
@@ -18759,7 +18837,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>777</v>
       </c>
@@ -18878,7 +18956,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>778</v>
       </c>
@@ -18994,7 +19072,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>779</v>
       </c>
@@ -19119,7 +19197,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>780</v>
       </c>
@@ -19244,7 +19322,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>781</v>
       </c>
@@ -19369,7 +19447,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>782</v>
       </c>
@@ -19494,7 +19572,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>783</v>
       </c>
@@ -19619,7 +19697,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>784</v>
       </c>
@@ -19726,7 +19804,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>785</v>
       </c>
@@ -19851,7 +19929,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>786</v>
       </c>
@@ -19964,7 +20042,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>787</v>
       </c>
@@ -20086,7 +20164,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>788</v>
       </c>
@@ -20208,7 +20286,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>789</v>
       </c>
@@ -20330,7 +20408,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>790</v>
       </c>
@@ -20452,7 +20530,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>791</v>
       </c>
@@ -20574,7 +20652,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>792</v>
       </c>
@@ -20687,7 +20765,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>793</v>
       </c>
@@ -20794,7 +20872,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>794</v>
       </c>
@@ -20919,7 +20997,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>795</v>
       </c>
@@ -21044,7 +21122,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>796</v>
       </c>
@@ -21169,7 +21247,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>797</v>
       </c>
@@ -21291,7 +21369,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>798</v>
       </c>
@@ -21416,7 +21494,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>799</v>
       </c>
@@ -21541,7 +21619,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>800</v>
       </c>
@@ -21666,7 +21744,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>801</v>
       </c>
@@ -21791,7 +21869,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>802</v>
       </c>
@@ -21910,7 +21988,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>803</v>
       </c>
@@ -22035,7 +22113,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>804</v>
       </c>
@@ -22160,7 +22238,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>805</v>
       </c>
@@ -22276,7 +22354,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>806</v>
       </c>
@@ -22401,7 +22479,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>807</v>
       </c>
@@ -22526,7 +22604,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>808</v>
       </c>
@@ -22645,7 +22723,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>809</v>
       </c>
@@ -22767,7 +22845,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>810</v>
       </c>
@@ -22889,7 +22967,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>811</v>
       </c>
@@ -23008,7 +23086,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>812</v>
       </c>
@@ -23130,7 +23208,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>813</v>
       </c>
@@ -23255,7 +23333,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>814</v>
       </c>
@@ -23341,7 +23419,7 @@
         <v>1513</v>
       </c>
       <c r="AG146">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH146" t="s">
         <v>1526</v>
@@ -23365,7 +23443,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>815</v>
       </c>
@@ -23490,7 +23568,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>816</v>
       </c>
@@ -23615,7 +23693,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>817</v>
       </c>
@@ -23740,7 +23818,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>818</v>
       </c>
@@ -23865,7 +23943,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>819</v>
       </c>
@@ -23990,7 +24068,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>820</v>
       </c>
@@ -24115,7 +24193,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>821</v>
       </c>
@@ -24240,7 +24318,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>822</v>
       </c>
@@ -24347,7 +24425,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>823</v>
       </c>
@@ -24463,7 +24541,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>824</v>
       </c>
@@ -24570,7 +24648,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>825</v>
       </c>
@@ -24692,7 +24770,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>826</v>
       </c>
@@ -24817,7 +24895,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>827</v>
       </c>
@@ -24939,7 +25017,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>828</v>
       </c>
@@ -25034,7 +25112,7 @@
         <v>1514</v>
       </c>
       <c r="AG160">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH160" t="s">
         <v>1528</v>
@@ -25061,7 +25139,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>829</v>
       </c>
@@ -25183,7 +25261,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>830</v>
       </c>
@@ -25305,7 +25383,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>831</v>
       </c>
@@ -25427,7 +25505,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>832</v>
       </c>
@@ -25537,7 +25615,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>833</v>
       </c>
@@ -25662,7 +25740,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>834</v>
       </c>
@@ -25784,7 +25862,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>835</v>
       </c>
@@ -25909,7 +25987,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>836</v>
       </c>
@@ -26034,7 +26112,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>837</v>
       </c>
@@ -26159,7 +26237,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>838</v>
       </c>
@@ -26284,7 +26362,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>839</v>
       </c>
@@ -26409,7 +26487,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>840</v>
       </c>
@@ -26528,7 +26606,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>841</v>
       </c>
@@ -26650,7 +26728,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>842</v>
       </c>
@@ -26775,7 +26853,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>843</v>
       </c>
@@ -26900,7 +26978,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>844</v>
       </c>
@@ -27025,7 +27103,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>845</v>
       </c>
@@ -27144,7 +27222,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>846</v>
       </c>
@@ -27269,7 +27347,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>847</v>
       </c>
@@ -27394,7 +27472,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>848</v>
       </c>
@@ -27519,7 +27597,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>849</v>
       </c>
@@ -27644,7 +27722,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>850</v>
       </c>
@@ -27763,7 +27841,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>851</v>
       </c>
@@ -27876,7 +27954,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>852</v>
       </c>
@@ -28001,7 +28079,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>853</v>
       </c>
@@ -28126,7 +28204,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>854</v>
       </c>
@@ -28248,7 +28326,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>855</v>
       </c>
@@ -28370,7 +28448,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="188" spans="1:41">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>856</v>
       </c>
@@ -28483,7 +28561,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="189" spans="1:41">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>857</v>
       </c>
@@ -28590,7 +28668,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>858</v>
       </c>
@@ -28694,7 +28772,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>859</v>
       </c>
@@ -28819,7 +28897,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>860</v>
       </c>
@@ -28941,7 +29019,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="193" spans="1:41">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>861</v>
       </c>
@@ -29066,7 +29144,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="194" spans="1:41">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>862</v>
       </c>
@@ -29173,7 +29251,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="195" spans="1:41">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>863</v>
       </c>
@@ -29295,7 +29373,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="196" spans="1:41">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>864</v>
       </c>
@@ -29417,7 +29495,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="197" spans="1:41">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>865</v>
       </c>
@@ -29539,7 +29617,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="198" spans="1:41">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>866</v>
       </c>
@@ -29661,7 +29739,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="199" spans="1:41">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>867</v>
       </c>
@@ -29780,7 +29858,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="200" spans="1:41">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>868</v>
       </c>
@@ -29899,7 +29977,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="201" spans="1:41">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>869</v>
       </c>
@@ -30006,7 +30084,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="202" spans="1:41">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>870</v>
       </c>
@@ -30131,7 +30209,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="203" spans="1:41">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>871</v>
       </c>
@@ -30256,7 +30334,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="204" spans="1:41">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>872</v>
       </c>
@@ -30381,7 +30459,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="205" spans="1:41">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>873</v>
       </c>
@@ -30506,7 +30584,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="206" spans="1:41">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>874</v>
       </c>
@@ -30625,7 +30703,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="207" spans="1:41">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>875</v>
       </c>
@@ -30738,7 +30816,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="208" spans="1:41">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>876</v>
       </c>
@@ -30845,7 +30923,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="209" spans="1:41">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>877</v>
       </c>
@@ -30970,7 +31048,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="210" spans="1:41">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>878</v>
       </c>
@@ -31095,7 +31173,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="211" spans="1:41">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>879</v>
       </c>
@@ -31220,7 +31298,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="212" spans="1:41">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>880</v>
       </c>
@@ -31345,7 +31423,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="213" spans="1:41">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>881</v>
       </c>
@@ -31458,7 +31536,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="214" spans="1:41">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>882</v>
       </c>
@@ -31583,7 +31661,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="215" spans="1:41">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>883</v>
       </c>
@@ -31708,7 +31786,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="216" spans="1:41">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>884</v>
       </c>
@@ -31821,7 +31899,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="217" spans="1:41">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>885</v>
       </c>
@@ -31943,7 +32021,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="218" spans="1:41">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>886</v>
       </c>
@@ -32065,7 +32143,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="219" spans="1:41">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>887</v>
       </c>
@@ -32190,7 +32268,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="220" spans="1:41">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>888</v>
       </c>
@@ -32315,7 +32393,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="221" spans="1:41">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>889</v>
       </c>
@@ -32440,7 +32518,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="222" spans="1:41">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>890</v>
       </c>
@@ -32559,7 +32637,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="223" spans="1:41">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>891</v>
       </c>
@@ -32681,7 +32759,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="224" spans="1:41">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>892</v>
       </c>
@@ -32806,7 +32884,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="225" spans="1:41">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>893</v>
       </c>
@@ -32931,7 +33009,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="226" spans="1:41">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>894</v>
       </c>
@@ -33044,7 +33122,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="227" spans="1:41">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>895</v>
       </c>
@@ -33166,7 +33244,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="228" spans="1:41">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>896</v>
       </c>
@@ -33291,7 +33369,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="229" spans="1:41">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>897</v>
       </c>
@@ -33416,7 +33494,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="230" spans="1:41">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>898</v>
       </c>
@@ -33541,7 +33619,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="231" spans="1:41">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>899</v>
       </c>
@@ -33666,7 +33744,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="232" spans="1:41">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>900</v>
       </c>
@@ -33791,7 +33869,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="233" spans="1:41">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>901</v>
       </c>
@@ -33913,7 +33991,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="234" spans="1:41">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>902</v>
       </c>
@@ -34038,7 +34116,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:41">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>903</v>
       </c>
@@ -34163,7 +34241,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="236" spans="1:41">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>904</v>
       </c>
@@ -34288,7 +34366,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="237" spans="1:41">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>905</v>
       </c>
@@ -34407,7 +34485,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="238" spans="1:41">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>906</v>
       </c>
@@ -34526,7 +34604,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="239" spans="1:41">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>907</v>
       </c>
@@ -34639,7 +34717,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="240" spans="1:41">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>908</v>
       </c>
@@ -34737,7 +34815,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="241" spans="1:41">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>909</v>
       </c>
@@ -34838,7 +34916,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="242" spans="1:41">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>910</v>
       </c>
@@ -34963,7 +35041,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="243" spans="1:41">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>911</v>
       </c>
@@ -35088,7 +35166,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="244" spans="1:41">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>912</v>
       </c>
@@ -35213,7 +35291,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="245" spans="1:41">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>913</v>
       </c>
@@ -35332,7 +35410,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="246" spans="1:41">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>914</v>
       </c>
@@ -35457,7 +35535,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="247" spans="1:41">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>915</v>
       </c>
@@ -35582,7 +35660,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="248" spans="1:41">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>916</v>
       </c>
@@ -35707,7 +35785,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="249" spans="1:41">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>917</v>
       </c>
@@ -35829,7 +35907,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="250" spans="1:41">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>919</v>
       </c>
@@ -35954,7 +36032,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="251" spans="1:41">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>920</v>
       </c>
@@ -36007,7 +36085,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="252" spans="1:41">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>923</v>
       </c>
@@ -36132,7 +36210,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="253" spans="1:41">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>924</v>
       </c>
@@ -36254,7 +36332,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="254" spans="1:41">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>925</v>
       </c>
@@ -36376,7 +36454,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="255" spans="1:41">
+    <row r="255" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>926</v>
       </c>
@@ -36501,7 +36579,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="256" spans="1:41">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>927</v>
       </c>
@@ -36626,7 +36704,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="257" spans="1:41">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>928</v>
       </c>
@@ -36748,7 +36826,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="258" spans="1:41">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>929</v>
       </c>
@@ -36870,7 +36948,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="259" spans="1:41">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>930</v>
       </c>
@@ -36992,7 +37070,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="260" spans="1:41">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>931</v>
       </c>
@@ -37114,7 +37192,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="261" spans="1:41">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>932</v>
       </c>
@@ -37239,7 +37317,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="262" spans="1:41">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>933</v>
       </c>
@@ -37364,7 +37442,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="263" spans="1:41">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>934</v>
       </c>
@@ -37486,7 +37564,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="264" spans="1:41">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>935</v>
       </c>
@@ -37590,7 +37668,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="265" spans="1:41">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>936</v>
       </c>
@@ -37688,7 +37766,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="266" spans="1:41">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>937</v>
       </c>
@@ -37810,7 +37888,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="267" spans="1:41">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>938</v>
       </c>
@@ -37935,7 +38013,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="268" spans="1:41">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>939</v>
       </c>
@@ -38060,7 +38138,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="269" spans="1:41">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>940</v>
       </c>
@@ -38185,7 +38263,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="270" spans="1:41">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>941</v>
       </c>
@@ -38310,7 +38388,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="271" spans="1:41">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>942</v>
       </c>
@@ -38435,7 +38513,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="272" spans="1:41">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>943</v>
       </c>
@@ -38560,7 +38638,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="273" spans="1:41">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>944</v>
       </c>
@@ -38685,7 +38763,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="274" spans="1:41">
+    <row r="274" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>945</v>
       </c>
@@ -38810,7 +38888,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="275" spans="1:41">
+    <row r="275" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>946</v>
       </c>
@@ -38920,7 +38998,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="276" spans="1:41">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>947</v>
       </c>
@@ -39045,7 +39123,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="277" spans="1:41">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>948</v>
       </c>
@@ -39167,7 +39245,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="278" spans="1:41">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>949</v>
       </c>
@@ -39286,7 +39364,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="279" spans="1:41">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>950</v>
       </c>
@@ -39408,7 +39486,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="280" spans="1:41">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>951</v>
       </c>
@@ -39515,7 +39593,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="281" spans="1:41">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>952</v>
       </c>
@@ -39622,7 +39700,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="282" spans="1:41">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>953</v>
       </c>
@@ -39738,7 +39816,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="283" spans="1:41">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>954</v>
       </c>
@@ -39863,7 +39941,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="284" spans="1:41">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>955</v>
       </c>
@@ -39976,7 +40054,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="285" spans="1:41">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>956</v>
       </c>
@@ -40101,7 +40179,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="286" spans="1:41">
+    <row r="286" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>957</v>
       </c>
@@ -40226,7 +40304,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="287" spans="1:41">
+    <row r="287" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>958</v>
       </c>
@@ -40351,7 +40429,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="288" spans="1:41">
+    <row r="288" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>959</v>
       </c>
@@ -40449,7 +40527,7 @@
         <v>1521</v>
       </c>
       <c r="AG288">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH288" t="s">
         <v>1526</v>
@@ -40476,7 +40554,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="289" spans="1:41">
+    <row r="289" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>960</v>
       </c>
@@ -40601,7 +40679,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="290" spans="1:41">
+    <row r="290" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>961</v>
       </c>
@@ -40726,7 +40804,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="291" spans="1:41">
+    <row r="291" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>962</v>
       </c>
@@ -40848,7 +40926,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="292" spans="1:41">
+    <row r="292" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>963</v>
       </c>
@@ -40970,7 +41048,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="293" spans="1:41">
+    <row r="293" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>964</v>
       </c>
@@ -41020,7 +41098,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="294" spans="1:41">
+    <row r="294" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>968</v>
       </c>
@@ -41145,7 +41223,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="295" spans="1:41">
+    <row r="295" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>969</v>
       </c>
@@ -41270,7 +41348,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="296" spans="1:41">
+    <row r="296" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>970</v>
       </c>
@@ -41395,7 +41473,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="297" spans="1:41">
+    <row r="297" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>971</v>
       </c>
@@ -41520,7 +41598,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="298" spans="1:41">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>972</v>
       </c>
@@ -41645,7 +41723,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="299" spans="1:41">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>973</v>
       </c>
@@ -41770,7 +41848,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="300" spans="1:41">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>974</v>
       </c>
@@ -41892,7 +41970,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="301" spans="1:41">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>975</v>
       </c>
@@ -42017,7 +42095,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="302" spans="1:41">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>976</v>
       </c>
@@ -42142,7 +42220,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="303" spans="1:41">
+    <row r="303" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>977</v>
       </c>
@@ -42264,7 +42342,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="304" spans="1:41">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>978</v>
       </c>
@@ -42386,7 +42464,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="305" spans="1:41">
+    <row r="305" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>979</v>
       </c>
@@ -42511,7 +42589,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="306" spans="1:41">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>980</v>
       </c>
@@ -42636,7 +42714,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="307" spans="1:41">
+    <row r="307" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>981</v>
       </c>
@@ -42761,7 +42839,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="308" spans="1:41">
+    <row r="308" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>982</v>
       </c>
@@ -42880,7 +42958,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="309" spans="1:41">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>983</v>
       </c>
@@ -43005,7 +43083,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="310" spans="1:41">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>984</v>
       </c>
@@ -43130,7 +43208,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="311" spans="1:41">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>985</v>
       </c>
@@ -43255,7 +43333,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="312" spans="1:41">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>986</v>
       </c>
@@ -43380,7 +43458,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="313" spans="1:41">
+    <row r="313" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>987</v>
       </c>
@@ -43499,7 +43577,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="314" spans="1:41">
+    <row r="314" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>988</v>
       </c>
@@ -43621,7 +43699,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="315" spans="1:41">
+    <row r="315" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>989</v>
       </c>
@@ -43746,7 +43824,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="316" spans="1:41">
+    <row r="316" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>990</v>
       </c>
@@ -43868,7 +43946,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="317" spans="1:41">
+    <row r="317" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>991</v>
       </c>
@@ -43963,7 +44041,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="318" spans="1:41">
+    <row r="318" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>992</v>
       </c>
@@ -44079,7 +44157,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="319" spans="1:41">
+    <row r="319" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>993</v>
       </c>
@@ -44201,7 +44279,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="320" spans="1:41">
+    <row r="320" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>994</v>
       </c>
@@ -44323,7 +44401,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="321" spans="1:41">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>995</v>
       </c>
@@ -44439,7 +44517,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="322" spans="1:41">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>996</v>
       </c>
@@ -44564,7 +44642,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="323" spans="1:41">
+    <row r="323" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>997</v>
       </c>
@@ -44689,7 +44767,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="324" spans="1:41">
+    <row r="324" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>998</v>
       </c>
@@ -44811,7 +44889,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="325" spans="1:41">
+    <row r="325" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>999</v>
       </c>
@@ -44936,7 +45014,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="326" spans="1:41">
+    <row r="326" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>1000</v>
       </c>
@@ -45058,7 +45136,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="327" spans="1:41">
+    <row r="327" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>1001</v>
       </c>
@@ -45180,7 +45258,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="328" spans="1:41">
+    <row r="328" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>1002</v>
       </c>
@@ -45302,7 +45380,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="329" spans="1:41">
+    <row r="329" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>1003</v>
       </c>
@@ -45412,7 +45490,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="330" spans="1:41">
+    <row r="330" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>1004</v>
       </c>
@@ -45531,7 +45609,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="331" spans="1:41">
+    <row r="331" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>1005</v>
       </c>
@@ -45656,7 +45734,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="332" spans="1:41">
+    <row r="332" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>1006</v>
       </c>
@@ -45778,7 +45856,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="333" spans="1:41">
+    <row r="333" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>1007</v>
       </c>
@@ -45903,7 +45981,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="334" spans="1:41">
+    <row r="334" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>1008</v>
       </c>
@@ -46022,7 +46100,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="335" spans="1:41">
+    <row r="335" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>1009</v>
       </c>
@@ -46147,7 +46225,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="336" spans="1:41">
+    <row r="336" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>1010</v>
       </c>
